--- a/hws/hw01.xlsx
+++ b/hws/hw01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aelhabr\Documents\projects\isye-6420\hws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476332EA-623E-423F-9876-BE8EC4CCBC32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BA7FD-1E69-4C6E-899B-A09DC798D59B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="3360" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17760" yWindow="3945" windowWidth="8160" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,66 +31,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
-  <si>
-    <t>Actual=0</t>
-  </si>
-  <si>
-    <t>Actual=1</t>
-  </si>
-  <si>
-    <t>Predicted=0</t>
-  </si>
-  <si>
-    <t>Predicted=1</t>
-  </si>
-  <si>
-    <t>Actual_total</t>
-  </si>
-  <si>
-    <t>Predicted_total</t>
-  </si>
-  <si>
-    <t>P(Predicted=1|Actual=1)</t>
-  </si>
-  <si>
-    <t>new P(Actual=1)</t>
-  </si>
-  <si>
-    <t>new P(Predicted=1)</t>
-  </si>
-  <si>
-    <t>P(Actual=1|Predicted=1)=(P(Predicted=1|Actual=1))P(Actual=1)) / P(Predicted=1)</t>
-  </si>
-  <si>
-    <t>P(Predicted=1)</t>
-  </si>
-  <si>
-    <t>P(Predicted=1|Actual=1)*new P(Actual=1)</t>
-  </si>
-  <si>
-    <t>P(Predicted=1|Actual=0)*new P(Actual=0)</t>
-  </si>
-  <si>
-    <t>P(Predicted=1|Actual=0)</t>
-  </si>
-  <si>
-    <t>P(Predicted=0|Actual=0)</t>
-  </si>
-  <si>
-    <t>P(Predicted=0|Actual=1)</t>
-  </si>
-  <si>
-    <t>P(Actual=0|Predicted=0)</t>
-  </si>
-  <si>
-    <t>P(Actual=1|Predicted=0)</t>
-  </si>
-  <si>
-    <t>P(Actual=0|Predicted=1)</t>
-  </si>
-  <si>
-    <t>P(Actual=1|Predicted=1)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+  <si>
+    <t>X=0</t>
+  </si>
+  <si>
+    <t>X=1</t>
+  </si>
+  <si>
+    <t>P(X=0)</t>
+  </si>
+  <si>
+    <t>P(X=1)</t>
+  </si>
+  <si>
+    <t>Y=0</t>
+  </si>
+  <si>
+    <t>Y=1</t>
+  </si>
+  <si>
+    <t>P(Y=0|X=0)</t>
+  </si>
+  <si>
+    <t>P(Y=0|X=1)</t>
+  </si>
+  <si>
+    <t>P(Y=1|X=0)</t>
+  </si>
+  <si>
+    <t>P(Y=1|X=1)</t>
+  </si>
+  <si>
+    <t>P(X=0|Y=0)</t>
+  </si>
+  <si>
+    <t>P(X=1|Y=0)</t>
+  </si>
+  <si>
+    <t>P(X=0|Y=1)</t>
+  </si>
+  <si>
+    <t>P(X=1|Y=1)</t>
+  </si>
+  <si>
+    <t>P(Y=0)</t>
+  </si>
+  <si>
+    <t>P(Y=1)</t>
+  </si>
+  <si>
+    <t>(P(Y=1|X=1))P(X=1)) / P(Y=1)</t>
+  </si>
+  <si>
+    <t>X_{total}</t>
+  </si>
+  <si>
+    <t>Y_{total}</t>
+  </si>
+  <si>
+    <t>P^{'}(X=1)</t>
+  </si>
+  <si>
+    <t>P(Y=1|X=1)*P^{'}(X=1)</t>
+  </si>
+  <si>
+    <t>P(Y=1|X=0)*P^{'}(X=0)</t>
+  </si>
+  <si>
+    <t>P^{'}(Y=1)</t>
+  </si>
+  <si>
+    <t>P^{'}(X=1|Y=1)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -132,9 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,36 +440,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1">
-        <f>C4/D4</f>
-        <v>0.58333333333333337</v>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -453,7 +486,7 @@
       </c>
       <c r="B2">
         <f>B4-B3</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <f>C4-C3</f>
@@ -463,11 +496,16 @@
         <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>C3/D3</f>
-        <v>0.8666666666666667</v>
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -476,306 +514,240 @@
       </c>
       <c r="B3">
         <f>D3-C3</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="H3">
+        <v>52</v>
+      </c>
+      <c r="I3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>70</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>B2/D2</f>
+        <v>0.67272727272727273</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f>B3/D3</f>
+        <v>0.2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <f>C2/D2</f>
         <v>0.32727272727272727</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>70</v>
-      </c>
-      <c r="D4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f>C3/D3</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>B2/B4</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="G6">
-        <f>G2*G5</f>
-        <v>8.666666666666668E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+      <c r="B12">
+        <f>B3/B4</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="G7">
-        <f>G3*(1-G5)</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <f>G6+G7</f>
-        <v>0.33266666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I11">
-        <f>G2*G5/G9</f>
-        <v>2.6052104208416839E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <f>B2/D2</f>
-        <v>0.76363636363636367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <f>B3/D3</f>
-        <v>0.13333333333333333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <f>C2/D2</f>
-        <v>0.32727272727272727</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <f>C3/D3</f>
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <f>B2/B4</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <f>B3/B4</f>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27">
+      <c r="B13">
         <f>C2/C4</f>
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <f>C3/C4</f>
         <v>0.74285714285714288</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f>D2/D4</f>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B31">
-        <v>0.8</v>
-      </c>
-      <c r="C31">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="D31">
-        <f>B31*B33+C31*C33</f>
-        <v>10.304</v>
-      </c>
-      <c r="E31">
-        <f>D31/D33</f>
-        <v>0.10304000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32">
-        <v>0.2</v>
-      </c>
-      <c r="C32">
-        <v>0.94</v>
-      </c>
-      <c r="D32">
-        <f>B32*B33+C32*C33</f>
-        <v>93.259999999999991</v>
-      </c>
-      <c r="E32">
-        <f>D32/D33</f>
-        <v>0.93259999999999987</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>99</v>
-      </c>
-      <c r="D33">
-        <f>B33+C33</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <f>B33/D33</f>
+      <c r="B17">
+        <f>D3/D4</f>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f>B4/D4</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f>C4/D4</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>0.01</v>
       </c>
-      <c r="C34">
-        <f>C33/D33</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="str">
-        <f>B30</f>
-        <v>Actual=1</v>
-      </c>
-      <c r="C35" t="str">
-        <f>C30</f>
-        <v>Actual=0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f>A31</f>
-        <v>Predicted=1</v>
-      </c>
-      <c r="B36">
-        <f>B31*1000</f>
-        <v>800</v>
-      </c>
-      <c r="C36">
-        <f>C31*1000</f>
-        <v>96</v>
-      </c>
-      <c r="D36">
-        <f>D31*1000</f>
-        <v>10304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>A32</f>
-        <v>Predicted=0</v>
-      </c>
-      <c r="B37">
-        <f>B32*1000</f>
-        <v>200</v>
-      </c>
-      <c r="C37">
-        <f>C32*1000</f>
-        <v>940</v>
-      </c>
-      <c r="D37">
-        <f>D32*1000</f>
-        <v>93259.999999999985</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <f>B33*1000</f>
-        <v>1000</v>
-      </c>
-      <c r="C38">
-        <f>C33*1000</f>
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39">
-        <f>B31/D31</f>
-        <v>7.7639751552795039E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <f>B31/B33</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44">
-        <f>C31/C34</f>
-        <v>9.696969696969697E-2</v>
+      <c r="C21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f>$B9*B21</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C22">
+        <f>$B9*C21</f>
+        <v>0.72000000000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f>$B8*(1-B21)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C23">
+        <f>$B8*(1-C21)</f>
+        <v>3.2727272727272723E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f>B22+B23</f>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="C24">
+        <f>C22+C23</f>
+        <v>0.7527272727272728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <f>B22*B21/B24</f>
+        <v>2.4096385542168676E-4</v>
+      </c>
+      <c r="C26">
+        <f>C22*C21/C24</f>
+        <v>0.86086956521739144</v>
       </c>
     </row>
   </sheetData>
